--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 1/BaoCaoCongViec-Tung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 1/BaoCaoCongViec-Tung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SX-BH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Tháng 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
-  <si>
-    <t>Báo cáo công việc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>Nội dung công việc</t>
   </si>
   <si>
-    <t>Kết quả làm được</t>
-  </si>
-  <si>
     <t>Chưa làm được</t>
   </si>
   <si>
@@ -74,42 +68,21 @@
     <t>Đóng gói dây thiết bị</t>
   </si>
   <si>
-    <t>Đã đóng gói khoảng 350 dây</t>
-  </si>
-  <si>
     <t>Đóng gói dây thiết bị, xử lý thiết bị bảo hành</t>
   </si>
   <si>
-    <t xml:space="preserve">Chưa xử lý xong thiết bị bảo hành </t>
-  </si>
-  <si>
     <t>Tiếp tục xử lý</t>
   </si>
   <si>
-    <t>Đã đóng gói khoảng 350 dây, nhận thiết bị bảo hành số lượng 6</t>
-  </si>
-  <si>
     <t>Xử lý thiết bị bảo hành</t>
   </si>
   <si>
-    <t>Nhận BH số lượng thiết bị 8</t>
-  </si>
-  <si>
-    <t>Đã xử lý xong thiết bị BH</t>
-  </si>
-  <si>
     <t>Xử lý thiết bị bảo hành, dán tem dây</t>
   </si>
   <si>
-    <t>Chưa xử lý xong thiết bi  BH</t>
-  </si>
-  <si>
     <t>Đóng hộp thiết bị</t>
   </si>
   <si>
-    <t>Số lượng khoảng 250 thiết bị</t>
-  </si>
-  <si>
     <t>Tuần 4: 25 -30/01/2021</t>
   </si>
   <si>
@@ -119,12 +92,6 @@
     <t>Tuần 3: 18 -23/01/2021</t>
   </si>
   <si>
-    <t>Chưa xử lý xong Econtrol, GPS Tây Ninh</t>
-  </si>
-  <si>
-    <t>Đã xử lý xong Bùi Mạnh Dũng</t>
-  </si>
-  <si>
     <t>Tiếp tục sửa chữa thiết bị BH</t>
   </si>
   <si>
@@ -137,56 +104,50 @@
     <t>Nhận thiết bị BH (ĐL Toàn Thắng, Gia Thành)</t>
   </si>
   <si>
-    <t>Chưa xử lý xong Econtrol (chở báo giá), chưa xử lý xong Cao Anh Vương</t>
-  </si>
-  <si>
-    <t>Sửa chữa thiết bị BH ĐL Toàn Thắng, Gia Thành</t>
-  </si>
-  <si>
     <t>Chưa xử lý xong</t>
   </si>
   <si>
-    <t>Trả BH ĐL Toàn Thắng</t>
-  </si>
-  <si>
-    <t>Tiếp tục xử lý Gia Thành, và Tô Văn Thuận</t>
-  </si>
-  <si>
-    <t>Trả BH Cao Anh Vương</t>
-  </si>
-  <si>
-    <t>Trả BH GPS Tây Ninh</t>
-  </si>
-  <si>
-    <t>Sửa chữa và trả BH Tô Văn Thuận</t>
-  </si>
-  <si>
-    <t>Đang tiến hành sửa chữa</t>
-  </si>
-  <si>
-    <t>Chưa sủa chữa xong</t>
-  </si>
-  <si>
     <t>(Nghỉ)</t>
   </si>
   <si>
-    <t>Nhận BH (Taris SG) (Nghỉ chiều)</t>
-  </si>
-  <si>
     <t>Đống hộp</t>
   </si>
   <si>
-    <t>SL: 250</t>
-  </si>
-  <si>
-    <t>SL: 350</t>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Đã xử xong</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Trạng Thái</t>
+  </si>
+  <si>
+    <t>Đã xử lý xong</t>
+  </si>
+  <si>
+    <t>Sửa chữa BH</t>
+  </si>
+  <si>
+    <t>Nhận BH (Taris SG)</t>
+  </si>
+  <si>
+    <t>Báo Cáo Công Việc</t>
+  </si>
+  <si>
+    <t>Tổng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +175,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -373,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,6 +397,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,389 +759,486 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
       <c r="D1" s="14" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>350</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>350</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>250</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="1">
+        <f>SUM(D6:D11)</f>
+        <v>950</v>
+      </c>
+      <c r="E12" s="1">
+        <f>SUM(E6:E11)</f>
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D18" s="3">
+        <v>250</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>350</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="1">
+        <f>SUM(D15:D20)</f>
+        <v>600</v>
+      </c>
+      <c r="E21" s="1">
+        <f>SUM(E15:E20)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="E26" s="3">
+        <v>25</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="1">
+        <f>SUM(D24:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <f>SUM(E24:E29)</f>
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D1:F1"/>
+  <mergeCells count="17">
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 1/BaoCaoCongViec-Tung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/2. Báo cáo công việc/Năm 2021/Tháng 1/BaoCaoCongViec-Tung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Tháng 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\2. Báo cáo công việc\Năm 2021\Tháng 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -353,6 +353,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -363,60 +417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -850,7 +850,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,7 +903,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -931,11 +931,11 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="1">
         <f>SUM(D6:D11)</f>
         <v>950</v>
@@ -944,15 +944,15 @@
         <f>SUM(E6:E11)</f>
         <v>14</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
@@ -966,7 +966,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -987,7 +987,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,7 +1006,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1068,11 +1068,11 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="1">
         <f>SUM(D15:D20)</f>
         <v>600</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="22" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1100,8 +1100,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1203,11 +1203,11 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1">
         <f>SUM(D24:D29)</f>
         <v>0</v>
@@ -1219,6 +1219,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A3:G3"/>
@@ -1235,7 +1236,6 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
